--- a/data/trans_dic/iP30A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A3_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,19; 82,99</t>
+          <t>77,91; 87,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,09; 84,01</t>
+          <t>81,69; 90,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,18; 82,51</t>
+          <t>80,62; 87,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>79,96%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,91; 87,09</t>
+          <t>75,19; 82,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,69; 90,17</t>
+          <t>76,09; 84,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,62; 87,26</t>
+          <t>77,18; 82,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A3_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>86,68%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,7; 90,17</t>
+          <t>73,07; 90,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,62; 89,12</t>
+          <t>82,26; 94,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,33; 88,17</t>
+          <t>80,68; 91,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>86,65%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,91; 87,09</t>
+          <t>82,62; 90,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,69; 90,17</t>
+          <t>80,27; 90,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,62; 87,26</t>
+          <t>83,34; 89,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>87,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>86,16%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,19; 82,99</t>
+          <t>80,6; 89,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,09; 84,01</t>
+          <t>82,62; 90,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,18; 82,51</t>
+          <t>82,5; 89,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>80,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>80,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>80,73%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,38; 83,7</t>
+          <t>75,95; 84,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,31; 85,48</t>
+          <t>76,08; 84,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,09; 83,82</t>
+          <t>77,55; 83,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81,3; 86,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81,69; 86,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82,17; 85,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
